--- a/Data/EC/NIT-9008764901.xlsx
+++ b/Data/EC/NIT-9008764901.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE152235-D1FE-43C1-9D81-4FDCA5A71CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{531F9850-8660-4BEA-9558-21FA7C75D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0BC792B-3E6E-4334-ADBF-6B25B379FDE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD2FA857-410D-445E-90A4-66FA86739509}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,58 +71,58 @@
     <t>ISMAEL GUILLERMO APONTE MARIMON</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>9157124</t>
+  </si>
+  <si>
+    <t>ENRIQUE CARLOS HURTADO COHEN</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
     <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>9157124</t>
-  </si>
-  <si>
-    <t>ENRIQUE CARLOS HURTADO COHEN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +221,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2011C5A-3EAA-6228-2C23-0F52A113EF23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEB1DD0-25E1-3035-E1C7-198AD243415C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEF9C3C-E4FB-4094-854B-7F7878CF2E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12930F35-3C6F-485B-B7D6-FC0C3FD0F72F}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1065,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24578</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>37472</v>
       </c>
       <c r="G17" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1108,13 +1108,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1125,19 +1125,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>37472</v>
       </c>
       <c r="G19" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1157,10 +1157,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1171,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>37472</v>
       </c>
       <c r="G21" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1200,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1217,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1246,13 +1246,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1263,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1292,13 +1292,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1309,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1338,13 +1338,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1355,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1384,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1401,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1424,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>24578</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1447,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1470,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1493,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
       </c>
       <c r="G35" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1516,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
       </c>
       <c r="G36" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1539,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1562,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
       </c>
       <c r="G38" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1585,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
       </c>
       <c r="G39" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1608,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1631,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
       </c>
       <c r="G41" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1654,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
       </c>
       <c r="G42" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1677,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1700,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F44" s="18">
         <v>35112</v>
       </c>
       <c r="G44" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1723,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F45" s="18">
-        <v>37472</v>
+        <v>35112</v>
       </c>
       <c r="G45" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1746,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F46" s="18">
-        <v>37472</v>
+        <v>24578</v>
       </c>
       <c r="G46" s="18">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1769,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="F47" s="24">
-        <v>37472</v>
+        <v>24578</v>
       </c>
       <c r="G47" s="24">
-        <v>877804</v>
+        <v>877805</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
